--- a/documents/REST_API명세서.xlsx
+++ b/documents/REST_API명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\양철민\WorkerSafety\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\touch\Desktop\sw 훈련과정\WorkerSafety\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2376" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> /logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/workerList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +95,10 @@
   </si>
   <si>
     <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/logout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,12 +151,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,99 +443,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/documents/REST_API명세서.xlsx
+++ b/documents/REST_API명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\touch\Desktop\sw 훈련과정\WorkerSafety\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\양철민\WorkerSafety\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2376" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/workerList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/workeradd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/workerdelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작업자 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,15 +78,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response(JSON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response(JSON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/logout</t>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업자 세부정보 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업자 추가결과 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업자 삭제결과 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,20 +525,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:D18"/>
+  <dimension ref="A12:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -467,75 +557,213 @@
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
+      <c r="E33" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
